--- a/v2/Brain Dump.xlsx
+++ b/v2/Brain Dump.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kerem\github\kardashev-scale\v2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9737AC-BDA7-499B-8EC0-CC6BADE3F02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="19665" yWindow="0" windowWidth="18735" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Summon Mechanics" sheetId="2" r:id="rId2"/>
+    <sheet name="Player Characters" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +26,173 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+  <si>
+    <t>HEAT</t>
+  </si>
+  <si>
+    <t>BASIC CULTIST</t>
+  </si>
+  <si>
+    <t>ADVANCED CULTIST</t>
+  </si>
+  <si>
+    <t>Increase HEAT by 1</t>
+  </si>
+  <si>
+    <t>WORLD EVENT</t>
+  </si>
+  <si>
+    <t>MECHANIC</t>
+  </si>
+  <si>
+    <t>CARD MANAGEMENT</t>
+  </si>
+  <si>
+    <t>Put 1 card from discard pile to your hand</t>
+  </si>
+  <si>
+    <t>Discard 1 card at random</t>
+  </si>
+  <si>
+    <t>Gain 1 HEAT for every X discarded card</t>
+  </si>
+  <si>
+    <t>Reduce HEAT by 1</t>
+  </si>
+  <si>
+    <t>Each player gains cultists equal to the number of cards they discarded</t>
+  </si>
+  <si>
+    <t>SUMMONING ANCIENT ONE</t>
+  </si>
+  <si>
+    <t>NUMBER OF CULTISTS</t>
+  </si>
+  <si>
+    <t>Decrease HEAT by 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquire a cultist from the shared market </t>
+  </si>
+  <si>
+    <t>SHARED MARKET</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>Each player gains 1 Gold</t>
+  </si>
+  <si>
+    <t>Each player loses 1 Gold</t>
+  </si>
+  <si>
+    <t>Gold cost of cultists are increased by 1 this round. Whenever a player acquires a cultist from the market, increase HEAT by 1</t>
+  </si>
+  <si>
+    <t>Increase the tracker value by 1 by paying the Ancient One's cost</t>
+  </si>
+  <si>
+    <t>Yog-Sothoth: Increase the number of world events, shared market spaces, shared market discards and heat cards revealed by 1 every notch</t>
+  </si>
+  <si>
+    <t>Cthulu: Shuffle madness cards into the event deck</t>
+  </si>
+  <si>
+    <t>The Banker: Whenever the banker gains Gold, all other players gain 1 Gold</t>
+  </si>
+  <si>
+    <t>The Seducer: Gain 1 additional cultist whenever a player gains a cultist</t>
+  </si>
+  <si>
+    <t>The Policeman: Reduce HEAT by 1 at the start of each turn</t>
+  </si>
+  <si>
+    <t>PLAYING CARDS</t>
+  </si>
+  <si>
+    <t>The next played card is negated</t>
+  </si>
+  <si>
+    <t>The next played card has it's effect repeated twice, if able</t>
+  </si>
+  <si>
+    <t>Draw and resolve 2 world event cards</t>
+  </si>
+  <si>
+    <t>Draw and resolve a HEAT card</t>
+  </si>
+  <si>
+    <t>Increase HEAT by 1. Each player loses Gold equal to the HEAT level</t>
+  </si>
+  <si>
+    <t>Greed: The cost of advancing is in Gold and cultists, each level increasing more than the last</t>
+  </si>
+  <si>
+    <t>The Logistician: Each player can play an extra card. Shuffle The Logistician to the market deck after resolving this effect</t>
+  </si>
+  <si>
+    <t>Return all cards from the discard pile and this card to your hand</t>
+  </si>
+  <si>
+    <t>The Accelerant: Play 2 cards</t>
+  </si>
+  <si>
+    <t>The Sensationalist: Increase HEAT by 1. Each player gains cultists equal to the HEAT level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slaneesh: </t>
+  </si>
+  <si>
+    <t>Each Player gains gold equal to the number of cultists they have</t>
+  </si>
+  <si>
+    <t>The Devourer: All cards that are played get removed from the game after being resolved. All decks must be empty to summon this god</t>
+  </si>
+  <si>
+    <t>Each Player gains 1 Gold</t>
+  </si>
+  <si>
+    <t>Pay 3 Gold. All players acquire 4 Gold</t>
+  </si>
+  <si>
+    <t>Increase HEAT by 1 for every card played after this card this round</t>
+  </si>
+  <si>
+    <t>Pump and Dumper: Increase HEAT by 1. Each Player Gains Gold equal to the HEAT level</t>
+  </si>
+  <si>
+    <t>Fall Guy: Reduce HEAT to 0, then put this card to the bottom of the Market Deck</t>
+  </si>
+  <si>
+    <t>&lt;GAME EFFECT&gt;: Increase heat by 1 whenever the tracker increases by 1</t>
+  </si>
+  <si>
+    <t>Remove this cultist from the game, then increase the tracker value by 2, ignoring all other costs</t>
+  </si>
+  <si>
+    <t>Increase HEAT by 2</t>
+  </si>
+  <si>
+    <t>Increase the tracker value by 1 if possible</t>
+  </si>
+  <si>
+    <t>Decrease the tracker value by 1 if possible</t>
+  </si>
+  <si>
+    <t>Each player gains cultists equal to the cultists they have</t>
+  </si>
+  <si>
+    <t>The Gravedigger: Once per round per player, the players can acquire cards from the market discard pile</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +200,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +244,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +537,282 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93593F86-EE52-4636-896A-6EED9543AA52}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="122.28515625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5C7382C-04A8-4F01-B324-C4146338B0E3}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="93.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>